--- a/data/output/FV2404_FV2310/UTILMD/55172.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55172.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9746" uniqueCount="610">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9767" uniqueCount="610">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1979,6 +1979,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U468" totalsRowShown="0">
+  <autoFilter ref="A1:U468"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2268,7 +2298,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23733,5 +23766,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55172.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55172.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11829" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11763" uniqueCount="1069">
   <si>
     <t>#</t>
   </si>
@@ -16092,9 +16092,7 @@
         <v>419</v>
       </c>
       <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L246" s="5"/>
       <c r="M246" s="2" t="s">
         <v>51</v>
       </c>
@@ -18890,9 +18888,7 @@
         <v>417</v>
       </c>
       <c r="K313" s="2"/>
-      <c r="L313" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L313" s="5"/>
       <c r="M313" s="2" t="s">
         <v>74</v>
       </c>
@@ -18946,9 +18942,7 @@
         <v>417</v>
       </c>
       <c r="K314" s="2"/>
-      <c r="L314" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L314" s="5"/>
       <c r="M314" s="2" t="s">
         <v>74</v>
       </c>
@@ -19002,9 +18996,7 @@
         <v>417</v>
       </c>
       <c r="K315" s="2"/>
-      <c r="L315" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L315" s="5"/>
       <c r="M315" s="2" t="s">
         <v>74</v>
       </c>
@@ -19694,9 +19686,7 @@
         <v>417</v>
       </c>
       <c r="K328" s="2"/>
-      <c r="L328" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L328" s="5"/>
       <c r="M328" s="2" t="s">
         <v>78</v>
       </c>
@@ -19750,9 +19740,7 @@
         <v>417</v>
       </c>
       <c r="K329" s="2"/>
-      <c r="L329" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L329" s="5"/>
       <c r="M329" s="2" t="s">
         <v>78</v>
       </c>
@@ -19806,9 +19794,7 @@
         <v>417</v>
       </c>
       <c r="K330" s="2"/>
-      <c r="L330" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L330" s="5"/>
       <c r="M330" s="2" t="s">
         <v>78</v>
       </c>
@@ -19862,9 +19848,7 @@
         <v>417</v>
       </c>
       <c r="K331" s="2"/>
-      <c r="L331" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L331" s="5"/>
       <c r="M331" s="2" t="s">
         <v>78</v>
       </c>
@@ -19918,9 +19902,7 @@
         <v>442</v>
       </c>
       <c r="K332" s="2"/>
-      <c r="L332" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L332" s="5"/>
       <c r="M332" s="2" t="s">
         <v>78</v>
       </c>
@@ -19974,9 +19956,7 @@
         <v>417</v>
       </c>
       <c r="K333" s="2"/>
-      <c r="L333" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L333" s="5"/>
       <c r="M333" s="2" t="s">
         <v>78</v>
       </c>
@@ -20088,9 +20068,7 @@
         <v>443</v>
       </c>
       <c r="K335" s="2"/>
-      <c r="L335" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L335" s="5"/>
       <c r="M335" s="2" t="s">
         <v>78</v>
       </c>
@@ -20144,9 +20122,7 @@
         <v>443</v>
       </c>
       <c r="K336" s="2"/>
-      <c r="L336" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L336" s="5"/>
       <c r="M336" s="2" t="s">
         <v>78</v>
       </c>
@@ -20200,9 +20176,7 @@
         <v>444</v>
       </c>
       <c r="K337" s="2"/>
-      <c r="L337" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L337" s="5"/>
       <c r="M337" s="2" t="s">
         <v>78</v>
       </c>
@@ -20258,9 +20232,7 @@
       <c r="K338" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="L338" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L338" s="5"/>
       <c r="M338" s="2" t="s">
         <v>78</v>
       </c>
@@ -20582,9 +20554,7 @@
         <v>417</v>
       </c>
       <c r="K344" s="2"/>
-      <c r="L344" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L344" s="5"/>
       <c r="M344" s="2" t="s">
         <v>80</v>
       </c>
@@ -20638,9 +20608,7 @@
         <v>417</v>
       </c>
       <c r="K345" s="2"/>
-      <c r="L345" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L345" s="5"/>
       <c r="M345" s="2" t="s">
         <v>80</v>
       </c>
@@ -20798,9 +20766,7 @@
         <v>417</v>
       </c>
       <c r="K348" s="2"/>
-      <c r="L348" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L348" s="5"/>
       <c r="M348" s="2" t="s">
         <v>81</v>
       </c>
@@ -21016,9 +20982,7 @@
         <v>417</v>
       </c>
       <c r="K352" s="2"/>
-      <c r="L352" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L352" s="5"/>
       <c r="M352" s="2" t="s">
         <v>82</v>
       </c>
@@ -21280,9 +21244,7 @@
         <v>417</v>
       </c>
       <c r="K357" s="2"/>
-      <c r="L357" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L357" s="5"/>
       <c r="M357" s="2" t="s">
         <v>83</v>
       </c>
@@ -21550,9 +21512,7 @@
       <c r="K362" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="L362" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L362" s="5"/>
       <c r="M362" s="2" t="s">
         <v>85</v>
       </c>
@@ -22580,9 +22540,7 @@
         <v>417</v>
       </c>
       <c r="K381" s="2"/>
-      <c r="L381" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L381" s="5"/>
       <c r="M381" s="2" t="s">
         <v>57</v>
       </c>
@@ -22636,9 +22594,7 @@
         <v>417</v>
       </c>
       <c r="K382" s="2"/>
-      <c r="L382" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L382" s="5"/>
       <c r="M382" s="2" t="s">
         <v>57</v>
       </c>
@@ -22692,9 +22648,7 @@
         <v>417</v>
       </c>
       <c r="K383" s="2"/>
-      <c r="L383" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L383" s="5"/>
       <c r="M383" s="2" t="s">
         <v>57</v>
       </c>
@@ -23542,9 +23496,7 @@
         <v>417</v>
       </c>
       <c r="K399" s="2"/>
-      <c r="L399" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L399" s="5"/>
       <c r="M399" s="2" t="s">
         <v>91</v>
       </c>
@@ -24230,9 +24182,7 @@
         <v>417</v>
       </c>
       <c r="K412" s="2"/>
-      <c r="L412" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L412" s="5"/>
       <c r="M412" s="2" t="s">
         <v>94</v>
       </c>
@@ -24286,9 +24236,7 @@
         <v>417</v>
       </c>
       <c r="K413" s="2"/>
-      <c r="L413" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L413" s="5"/>
       <c r="M413" s="2" t="s">
         <v>94</v>
       </c>
@@ -24342,9 +24290,7 @@
         <v>417</v>
       </c>
       <c r="K414" s="2"/>
-      <c r="L414" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L414" s="5"/>
       <c r="M414" s="2" t="s">
         <v>94</v>
       </c>
@@ -25084,9 +25030,7 @@
         <v>417</v>
       </c>
       <c r="K428" s="2"/>
-      <c r="L428" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L428" s="5"/>
       <c r="M428" s="2" t="s">
         <v>97</v>
       </c>
@@ -25140,9 +25084,7 @@
         <v>417</v>
       </c>
       <c r="K429" s="2"/>
-      <c r="L429" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L429" s="5"/>
       <c r="M429" s="2" t="s">
         <v>97</v>
       </c>
@@ -25196,9 +25138,7 @@
         <v>417</v>
       </c>
       <c r="K430" s="2"/>
-      <c r="L430" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L430" s="5"/>
       <c r="M430" s="2" t="s">
         <v>97</v>
       </c>
@@ -25252,9 +25192,7 @@
         <v>417</v>
       </c>
       <c r="K431" s="2"/>
-      <c r="L431" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L431" s="5"/>
       <c r="M431" s="2" t="s">
         <v>97</v>
       </c>
@@ -25308,9 +25246,7 @@
         <v>417</v>
       </c>
       <c r="K432" s="2"/>
-      <c r="L432" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L432" s="5"/>
       <c r="M432" s="2" t="s">
         <v>97</v>
       </c>
@@ -25992,9 +25928,7 @@
         <v>417</v>
       </c>
       <c r="K445" s="2"/>
-      <c r="L445" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="L445" s="5"/>
       <c r="M445" s="2" t="s">
         <v>100</v>
       </c>
